--- a/DAO_Memory/dao_memory/bdd_memory.xlsx
+++ b/DAO_Memory/dao_memory/bdd_memory.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">idJoueur</t>
   </si>
@@ -35,6 +35,9 @@
     <t xml:space="preserve">mailJoueur</t>
   </si>
   <si>
+    <t xml:space="preserve">pseudo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vitry</t>
   </si>
   <si>
@@ -44,6 +47,15 @@
     <t xml:space="preserve">maximilien.vitry@etu.ensma.fr</t>
   </si>
   <si>
+    <t xml:space="preserve">NOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prenom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joueur2@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">idPartie</t>
   </si>
   <si>
@@ -51,24 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">liste_score</t>
-  </si>
-  <si>
-    <t>NOM</t>
-  </si>
-  <si>
-    <t>Prenom</t>
-  </si>
-  <si>
-    <t>joueur2@gmail.com</t>
-  </si>
-  <si>
-    <t>Joueur</t>
-  </si>
-  <si>
-    <t>joueur3@gmail.com</t>
-  </si>
-  <si>
-    <t>NewPrenom</t>
   </si>
 </sst>
 </file>
@@ -181,18 +175,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="21.55" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="24.04" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="29.18" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="37.23" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -208,33 +202,36 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -262,22 +259,22 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="29.72" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="30.7" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="26.53" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
